--- a/data-raw/eukey/sexy1_eukey.xlsx
+++ b/data-raw/eukey/sexy1_eukey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\SEXYrye\data-raw\eukey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844D97D-50F5-44FE-8E7D-6380B2C973AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E20193-A359-4B48-A1AF-F1697FAC27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43631063-D6A1-4EF1-B7CF-AFD77FA219CB}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="27">
-  <si>
-    <t>block_id</t>
-  </si>
-  <si>
-    <t>plot_id</t>
-  </si>
-  <si>
-    <t>croptrt_id</t>
-  </si>
-  <si>
-    <t>weedctl_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="27">
   <si>
     <t>p</t>
   </si>
@@ -65,58 +53,70 @@
     <t>apmix</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>herb</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>Last updated 7 Nov 2024</t>
   </si>
   <si>
-    <t>herb means herbicides will be used to control weeds</t>
-  </si>
-  <si>
-    <t>none means no control methods will be used</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>plothalf - plots were double wide with a north side and a south side</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>For trial 1 (T1), planted 2024</t>
+  </si>
+  <si>
+    <t>xaprows</t>
+  </si>
+  <si>
+    <t>xacc</t>
+  </si>
+  <si>
+    <t>xapmix</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>xpcc</t>
+  </si>
+  <si>
+    <t>xa</t>
   </si>
   <si>
     <t>eu_id</t>
   </si>
   <si>
-    <t>plothalf_id</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>plothalf - plots were double wide with a north side and a south side</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>For trial 1 (T1), planted 2024</t>
-  </si>
-  <si>
-    <t>xaprows</t>
-  </si>
-  <si>
-    <t>xacc</t>
-  </si>
-  <si>
-    <t>xapmix</t>
-  </si>
-  <si>
-    <t>xp</t>
-  </si>
-  <si>
-    <t>xpcc</t>
-  </si>
-  <si>
-    <t>xa</t>
+    <t>trt_id</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>see trtkey for more on trt_id</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>plothalf</t>
+  </si>
+  <si>
+    <t>samptype</t>
+  </si>
+  <si>
+    <t>samptyped referers to destructive sampling (d) or yields (y)</t>
   </si>
 </sst>
 </file>
@@ -491,54 +491,57 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -552,13 +555,13 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -572,7 +575,10 @@
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -586,13 +592,13 @@
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -606,7 +612,10 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,13 +629,13 @@
         <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,7 +649,10 @@
         <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -654,13 +666,13 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,7 +686,10 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,13 +703,13 @@
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -708,7 +723,10 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,13 +740,13 @@
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -742,7 +760,10 @@
         <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,13 +777,13 @@
         <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,7 +797,10 @@
         <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -790,13 +814,13 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,7 +834,10 @@
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,13 +851,13 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -844,7 +871,10 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -858,13 +888,13 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -878,7 +908,10 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,13 +925,13 @@
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,7 +945,10 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,13 +962,13 @@
         <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -946,7 +982,10 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -961,13 +1000,13 @@
         <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -982,7 +1021,10 @@
         <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,13 +1039,13 @@
         <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1018,7 +1060,10 @@
         <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,13 +1078,13 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1054,7 +1099,10 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,13 +1117,13 @@
         <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,7 +1138,10 @@
         <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,13 +1156,13 @@
         <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,7 +1177,10 @@
         <v>205</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1141,13 +1195,13 @@
         <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1162,7 +1216,10 @@
         <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1177,13 +1234,13 @@
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1198,7 +1255,10 @@
         <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1213,13 +1273,13 @@
         <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1234,7 +1294,10 @@
         <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,13 +1312,13 @@
         <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,7 +1333,10 @@
         <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1285,13 +1351,13 @@
         <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,7 +1372,10 @@
         <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1321,13 +1390,13 @@
         <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1342,7 +1411,10 @@
         <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,13 +1429,13 @@
         <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,7 +1450,10 @@
         <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1393,13 +1468,13 @@
         <v>301</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1414,7 +1489,10 @@
         <v>301</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,13 +1507,13 @@
         <v>302</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,7 +1528,10 @@
         <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1465,13 +1546,13 @@
         <v>303</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1567,10 @@
         <v>303</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1501,13 +1585,13 @@
         <v>304</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1522,7 +1606,10 @@
         <v>304</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1537,13 +1624,13 @@
         <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1558,7 +1645,10 @@
         <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1573,13 +1663,13 @@
         <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1594,7 +1684,10 @@
         <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,13 +1702,13 @@
         <v>307</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,7 +1723,10 @@
         <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,13 +1741,13 @@
         <v>308</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1666,7 +1762,10 @@
         <v>308</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,13 +1780,13 @@
         <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1702,7 +1801,10 @@
         <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1717,13 +1819,13 @@
         <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,7 +1840,10 @@
         <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,13 +1858,13 @@
         <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1774,7 +1879,10 @@
         <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,13 +1897,13 @@
         <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,7 +1918,10 @@
         <v>312</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,13 +1936,13 @@
         <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,7 +1957,10 @@
         <v>401</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1861,13 +1975,13 @@
         <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1882,7 +1996,10 @@
         <v>402</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,13 +2014,13 @@
         <v>403</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1918,7 +2035,10 @@
         <v>403</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1933,13 +2053,13 @@
         <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -1954,7 +2074,10 @@
         <v>404</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,13 +2092,13 @@
         <v>405</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,7 +2113,10 @@
         <v>405</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2005,13 +2131,13 @@
         <v>406</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,7 +2152,10 @@
         <v>406</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,13 +2170,13 @@
         <v>407</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2062,7 +2191,10 @@
         <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,13 +2209,13 @@
         <v>408</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,7 +2230,10 @@
         <v>408</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2113,13 +2248,13 @@
         <v>409</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2134,7 +2269,10 @@
         <v>409</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,13 +2287,13 @@
         <v>410</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2170,7 +2308,10 @@
         <v>410</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2185,13 +2326,13 @@
         <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,7 +2347,10 @@
         <v>411</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,13 +2365,13 @@
         <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,7 +2386,10 @@
         <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2252,5 +2399,6 @@
     <sortCondition ref="D7:D102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/eukey/sexy1_eukey.xlsx
+++ b/data-raw/eukey/sexy1_eukey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\SEXYrye\data-raw\eukey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E20193-A359-4B48-A1AF-F1697FAC27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7610C5BC-C287-4972-BB04-A6BCFC81F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43631063-D6A1-4EF1-B7CF-AFD77FA219CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="33">
   <si>
     <t>p</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Last updated 7 Nov 2024</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>plothalf - plots were double wide with a north side and a south side</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>For trial 1 (T1), planted 2024</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>trt_id</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>see trtkey for more on trt_id</t>
   </si>
   <si>
@@ -117,6 +105,36 @@
   </si>
   <si>
     <t>samptyped referers to destructive sampling (d) or yields (y)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>patchy</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>FAILED?</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296A6B0E-1CDB-406A-A00B-3E17283E341B}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,52 +517,55 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -555,16 +576,16 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -575,13 +596,13 @@
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -592,16 +613,16 @@
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -612,13 +633,13 @@
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -629,16 +650,16 @@
         <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -649,13 +670,13 @@
         <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -666,16 +687,16 @@
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -686,13 +707,13 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -703,16 +724,16 @@
         <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -723,13 +744,13 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -740,16 +761,19 @@
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -760,13 +784,13 @@
         <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -777,16 +801,16 @@
         <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -797,13 +821,13 @@
         <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -814,16 +838,19 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -834,13 +861,16 @@
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -851,16 +881,19 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -871,13 +904,13 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -888,16 +921,19 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -908,13 +944,13 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -925,16 +961,16 @@
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -945,13 +981,13 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -962,16 +998,16 @@
         <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -982,13 +1018,13 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1000,16 +1036,16 @@
         <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -1021,13 +1057,16 @@
         <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1039,16 +1078,19 @@
         <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -1060,13 +1102,16 @@
         <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -1078,16 +1123,19 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -1099,13 +1147,16 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
@@ -1117,16 +1168,19 @@
         <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
@@ -1138,13 +1192,16 @@
         <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -1156,16 +1213,19 @@
         <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -1177,13 +1237,16 @@
         <v>205</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -1195,16 +1258,19 @@
         <v>206</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
@@ -1216,13 +1282,16 @@
         <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
@@ -1234,16 +1303,19 @@
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
@@ -1255,13 +1327,16 @@
         <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
@@ -1273,16 +1348,16 @@
         <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40</v>
       </c>
@@ -1294,13 +1369,13 @@
         <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
@@ -1312,16 +1387,19 @@
         <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
@@ -1333,13 +1411,16 @@
         <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43</v>
       </c>
@@ -1351,16 +1432,19 @@
         <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
@@ -1372,13 +1456,16 @@
         <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
@@ -1390,16 +1477,16 @@
         <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -1411,13 +1498,13 @@
         <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>47</v>
       </c>
@@ -1429,16 +1516,19 @@
         <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
@@ -1450,13 +1540,16 @@
         <v>212</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
@@ -1468,16 +1561,16 @@
         <v>301</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
@@ -1489,13 +1582,13 @@
         <v>301</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
@@ -1507,16 +1600,16 @@
         <v>302</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
@@ -1528,13 +1621,13 @@
         <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
@@ -1546,16 +1639,16 @@
         <v>303</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -1567,13 +1660,13 @@
         <v>303</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -1585,16 +1678,16 @@
         <v>304</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
@@ -1606,13 +1699,13 @@
         <v>304</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -1624,16 +1717,16 @@
         <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
@@ -1645,13 +1738,13 @@
         <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
@@ -1663,16 +1756,16 @@
         <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
@@ -1684,13 +1777,13 @@
         <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
@@ -1702,16 +1795,16 @@
         <v>307</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>62</v>
       </c>
@@ -1723,13 +1816,13 @@
         <v>307</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>63</v>
       </c>
@@ -1741,16 +1834,16 @@
         <v>308</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
@@ -1762,13 +1855,13 @@
         <v>308</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
@@ -1780,16 +1873,16 @@
         <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
@@ -1801,13 +1894,16 @@
         <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
@@ -1819,16 +1915,16 @@
         <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>68</v>
       </c>
@@ -1840,13 +1936,13 @@
         <v>310</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
@@ -1858,16 +1954,16 @@
         <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70</v>
       </c>
@@ -1879,13 +1975,13 @@
         <v>311</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>71</v>
       </c>
@@ -1897,16 +1993,16 @@
         <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>72</v>
       </c>
@@ -1918,13 +2014,13 @@
         <v>312</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>73</v>
       </c>
@@ -1936,16 +2032,16 @@
         <v>401</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>74</v>
       </c>
@@ -1957,13 +2053,13 @@
         <v>401</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>75</v>
       </c>
@@ -1975,16 +2071,16 @@
         <v>402</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>76</v>
       </c>
@@ -1996,13 +2092,16 @@
         <v>402</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>77</v>
       </c>
@@ -2014,16 +2113,16 @@
         <v>403</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>78</v>
       </c>
@@ -2035,13 +2134,13 @@
         <v>403</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>79</v>
       </c>
@@ -2053,16 +2152,19 @@
         <v>404</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>80</v>
       </c>
@@ -2074,13 +2176,13 @@
         <v>404</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>81</v>
       </c>
@@ -2092,16 +2194,16 @@
         <v>405</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>82</v>
       </c>
@@ -2113,13 +2215,13 @@
         <v>405</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>83</v>
       </c>
@@ -2131,16 +2233,16 @@
         <v>406</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>84</v>
       </c>
@@ -2152,13 +2254,16 @@
         <v>406</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>85</v>
       </c>
@@ -2170,16 +2275,19 @@
         <v>407</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>86</v>
       </c>
@@ -2191,13 +2299,13 @@
         <v>407</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>87</v>
       </c>
@@ -2209,16 +2317,19 @@
         <v>408</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>88</v>
       </c>
@@ -2230,13 +2341,13 @@
         <v>408</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>89</v>
       </c>
@@ -2248,16 +2359,16 @@
         <v>409</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>90</v>
       </c>
@@ -2269,13 +2380,13 @@
         <v>409</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>91</v>
       </c>
@@ -2287,16 +2398,16 @@
         <v>410</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>92</v>
       </c>
@@ -2308,13 +2419,13 @@
         <v>410</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>93</v>
       </c>
@@ -2326,16 +2437,16 @@
         <v>411</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>94</v>
       </c>
@@ -2347,13 +2458,16 @@
         <v>411</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>95</v>
       </c>
@@ -2365,16 +2479,19 @@
         <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>96</v>
       </c>
@@ -2386,10 +2503,10 @@
         <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
